--- a/形状.xlsx
+++ b/形状.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project\BoxAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67256241-ED51-4816-9710-36BED79096FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590A97F-C7CC-4097-AEFC-AE028E563110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8961E15D-4844-D744-9C58-BD4E28FB4A76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8961E15D-4844-D744-9C58-BD4E28FB4A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$W$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$4:$Y$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>内空幅</t>
   </si>
@@ -37,17 +37,6 @@
   </si>
   <si>
     <t>ハンチ１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンチ２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土被り</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -91,21 +80,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▽水位</t>
-    <rPh sb="1" eb="3">
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T-25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▽高水位</t>
+    <rPh sb="1" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>スイイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水深</t>
-    <rPh sb="0" eb="2">
-      <t>スイシン</t>
-    </rPh>
+    <r>
+      <t>10kN/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④</t>
+    <t>土被り</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -113,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,13 +154,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -162,8 +165,23 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +212,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -209,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,23 +255,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,23 +294,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,17 +343,340 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80331</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14607</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FE2B6A-D204-4EEC-81F7-C050D3494B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="-1" r="44723" b="68899"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2605030" y="114760"/>
+          <a:ext cx="1701565" cy="918072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="直角三角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917E8274-D120-441F-AD37-84E3A2A879CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009879" y="2042711"/>
+          <a:ext cx="252470" cy="252470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="直角三角形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F47C4E9-97A5-4B96-ACCF-F6D848EE625F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1262349" y="1767289"/>
+          <a:ext cx="252470" cy="252470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="直角三角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C147A5-9F25-4AAF-9227-C672FD751CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4039518" y="1767289"/>
+          <a:ext cx="252470" cy="252470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="直角三角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6999F1D-B167-485D-9D21-F29775AFA9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4291988" y="2042711"/>
+          <a:ext cx="252470" cy="252470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -367,13 +735,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -389,8 +757,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="2286000"/>
-          <a:ext cx="0" cy="2794000"/>
+          <a:off x="1009880" y="2272229"/>
+          <a:ext cx="0" cy="3282108"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -418,13 +786,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -469,13 +837,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -518,15 +886,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -569,15 +937,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -593,59 +961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="2286000"/>
-          <a:ext cx="0" cy="2794000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3DD2D6-575D-804D-A4DB-319F5307A272}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1270000" y="5588000"/>
-          <a:ext cx="4318000" cy="0"/>
+          <a:off x="4544458" y="2272229"/>
+          <a:ext cx="0" cy="3282108"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -673,13 +990,64 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3DD2D6-575D-804D-A4DB-319F5307A272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009880" y="5554337"/>
+          <a:ext cx="3534578" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -727,13 +1095,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -781,13 +1149,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -830,15 +1198,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -856,8 +1224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3282109" y="252470"/>
-          <a:ext cx="1009880" cy="252470"/>
+          <a:off x="3787049" y="1009880"/>
+          <a:ext cx="1009880" cy="252469"/>
           <a:chOff x="221" y="133"/>
           <a:chExt cx="70" cy="20"/>
         </a:xfrm>
@@ -1571,14 +1939,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>229518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1593,8 +1961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3048000" y="508000"/>
-          <a:ext cx="0" cy="762000"/>
+          <a:off x="2524699" y="1009881"/>
+          <a:ext cx="0" cy="1491866"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1623,15 +1991,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1677,15 +2045,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1731,15 +2099,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1785,15 +2153,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1839,333 +2207,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線コネクタ 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39ED0A0-A99C-0A4D-AD4F-465BC41D45E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5588000" y="5080000"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線コネクタ 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB3FF0F-2DCF-7E48-8F1E-3A2296816413}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5588000" y="4572000"/>
-          <a:ext cx="508000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:headEnd type="arrow" w="sm" len="sm"/>
-          <a:tailEnd type="arrow" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB7EEE2-1E2D-FB4C-9F34-1A9718997500}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5588000" y="4572000"/>
-          <a:ext cx="0" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6DF02D-CB3F-3D41-B3D3-50518F239E44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4826000" y="5080000"/>
-          <a:ext cx="1016000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A977A5-2630-5C4E-94E4-9B904E79396F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4826000" y="5080000"/>
-          <a:ext cx="0" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:headEnd type="arrow" w="sm" len="sm"/>
-          <a:tailEnd type="arrow" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A94AED-7FAC-A540-B804-D8E3DA62816A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="762000" y="5080000"/>
-          <a:ext cx="508000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2218,13 +2268,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2275,13 +2325,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2330,15 +2380,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2384,15 +2434,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2438,15 +2488,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2492,15 +2542,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2546,15 +2596,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2600,15 +2650,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2654,120 +2704,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線コネクタ 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB7AC32-437D-4F7C-A9F9-E942C7A56AA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6816687" y="252471"/>
-          <a:ext cx="0" cy="2777168"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:headEnd type="arrow" w="sm" len="sm"/>
-          <a:tailEnd type="arrow" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="直線コネクタ 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7530C0E-876E-42B8-8B08-97D6316FCF85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5301867" y="3029639"/>
-          <a:ext cx="1514820" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218041</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>99839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>126235</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91806</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>240993</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2783,7 +2728,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5301867" y="3129478"/>
+          <a:off x="470511" y="1109719"/>
           <a:ext cx="378705" cy="141154"/>
           <a:chOff x="7574096" y="3282108"/>
           <a:chExt cx="1262350" cy="470512"/>
@@ -2907,6 +2852,330 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>206567</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>206567</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12AA2CF-472F-458B-86E8-A725DE431064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4751025" y="757410"/>
+          <a:ext cx="0" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD918C99-2313-457A-B853-7EA3A41A999E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5049398" y="757410"/>
+          <a:ext cx="0" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CC7A20-9ED1-481F-B2FE-806FD774BC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5301867" y="757410"/>
+          <a:ext cx="0" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22951</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22951</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98483CF5-B42A-46B3-B6BC-224D06EE154B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5577288" y="757410"/>
+          <a:ext cx="0" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAF7B24-4BBD-4DFA-8C79-8EE50B7B9A04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5806807" y="757410"/>
+          <a:ext cx="0" cy="504939"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF66788C-C9AE-40BD-917D-0D213249C3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4544458" y="757410"/>
+          <a:ext cx="1767289" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3209,139 +3478,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED869C6-2109-9F43-A1A2-31D065FA07A8}">
-  <dimension ref="A2:AB28"/>
+  <dimension ref="A3:AB31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="20.25" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
-        <v>4</v>
+    <row r="3" spans="1:28" ht="20.25" customHeight="1">
+      <c r="G3" s="27" t="s">
+        <v>11</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
-    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="19" t="s">
-        <v>8</v>
+    <row r="4" spans="1:28" ht="20.25" customHeight="1">
+      <c r="C4" s="26" t="s">
+        <v>12</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="D4" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="20.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-    </row>
-    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:28" ht="20.25" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -3349,76 +3534,125 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="H6" s="16"/>
-      <c r="J6" s="1"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="11" t="s">
-        <v>13</v>
+    <row r="6" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="4" t="s">
+        <v>6</v>
       </c>
-      <c r="AB6" s="6"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="H7" s="16"/>
-      <c r="J7" s="1"/>
-      <c r="M7" s="14" t="s">
-        <v>2</v>
+    <row r="7" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="29" t="s">
+        <v>14</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="6"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="H8" s="16"/>
-      <c r="M8" s="14"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="6"/>
+    <row r="8" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" ht="20.25" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="H9" s="1"/>
-      <c r="M9" s="14"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="H9" s="19"/>
+      <c r="J9" s="29"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
     </row>
-    <row r="10" spans="1:28" ht="20.25">
+    <row r="10" spans="1:28" ht="20.25" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="M10" s="14"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="22" t="s">
-        <v>11</v>
+      <c r="H10" s="19"/>
+      <c r="J10" s="1"/>
+      <c r="O10" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -3427,12 +3661,21 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" ht="20.25" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="M11" s="14"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -3440,52 +3683,79 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
     </row>
-    <row r="12" spans="1:28" ht="20.25">
+    <row r="12" spans="1:28" ht="20.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="P12" s="15" t="s">
-        <v>2</v>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" ht="20.25" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="J13" s="14" t="s">
-        <v>1</v>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="15" t="s">
+        <v>9</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
     </row>
-    <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:28" ht="20.25" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="J14" s="14"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -3493,30 +3763,28 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
     </row>
-    <row r="15" spans="1:28" ht="20.25">
+    <row r="15" spans="1:28" ht="20.25" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
-        <v>7</v>
+      <c r="B15" s="6"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="18" t="s">
+        <v>2</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -3524,73 +3792,113 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="J16" s="14"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+    <row r="16" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="14"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="20.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="P18" s="15" t="s">
-        <v>3</v>
+    <row r="18" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="16" t="s">
+        <v>5</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" ht="20.25" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
@@ -3598,16 +3906,26 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" spans="1:28" ht="20.25">
+    <row r="20" spans="1:28" ht="20.25" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="M20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -3615,12 +3933,26 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" ht="20.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="M21" s="14"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="21"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -3628,43 +3960,81 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:28" ht="20.25" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="H22" s="16" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" ht="20.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="H23" s="16"/>
-      <c r="M23" s="14"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
+      <c r="X23" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" ht="20.25" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="H24" s="16"/>
-      <c r="M24" s="14"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
@@ -3672,12 +4042,27 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" ht="20.25" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
@@ -3685,29 +4070,11 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" ht="20.25" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
+      <c r="H26" s="19"/>
+      <c r="O26" s="1"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
@@ -3715,29 +4082,11 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" ht="20.25" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
+      <c r="H27" s="19"/>
+      <c r="O27" s="1"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
@@ -3745,29 +4094,10 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" ht="20.25" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
+      <c r="H28" s="19"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
@@ -3775,25 +4105,112 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
+    <row r="29" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="1:28" ht="20.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AA6:AA9"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="M20:M24"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="K15:M15"/>
+  <mergeCells count="8">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="27" min="1" max="39" man="1"/>
+    <brk id="30" min="1" max="39" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/形状.xlsx
+++ b/形状.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Project\BoxAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590A97F-C7CC-4097-AEFC-AE028E563110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AD704C-AD71-4626-B9B8-F1E2C97DEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8961E15D-4844-D744-9C58-BD4E28FB4A76}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{8961E15D-4844-D744-9C58-BD4E28FB4A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$4:$Y$30</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>内空幅</t>
   </si>
@@ -37,55 +38,32 @@
   </si>
   <si>
     <t>ハンチ１</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>上床版厚</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>下床版厚</t>
     <rPh sb="0" eb="4">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>側壁厚</t>
     <rPh sb="0" eb="2">
       <t>ソクヘキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地層</t>
-    <rPh sb="0" eb="2">
-      <t>チソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>T-25</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>▽高水位</t>
@@ -95,7 +73,7 @@
     <rPh sb="2" eb="4">
       <t>スイイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -112,20 +90,68 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>土被り</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>埋め戻し土</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1層目</t>
+    <rPh sb="1" eb="3">
+      <t>ソウメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2層目</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3層目</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -228,16 +254,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -246,87 +275,91 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{4F956C0A-C3E3-4623-9320-64284948AD79}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3178,6 +3211,3349 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5429249" cy="12549188"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="グラフィックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989FB4DA-6CD1-4E53-9060-01CEBB835BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="27622" t="13361" r="57652" b="16268"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="190499"/>
+          <a:ext cx="5429249" cy="12549188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>286291</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902C2722-7B39-4EFD-8BD2-2D2A19A80259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2343691" y="581025"/>
+          <a:ext cx="599534" cy="2675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D227D33A-E9A5-46CD-B2A7-B7918F588690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="333375"/>
+          <a:ext cx="1172116" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>安全率の最大値</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>result_max</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290774</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A64185-E979-4E26-AFC0-7B8DCE8D9BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2348174" y="1381126"/>
+          <a:ext cx="574320" cy="10341"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67796</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="736740"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B821E-7841-4998-81D8-7FED7F4E009D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="1020296"/>
+          <a:ext cx="1172116" cy="736740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地表面から</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内空までの深さ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Df </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>410075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B55A86F-C1FA-490B-8771-0C80B49B7C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1781675" y="2038351"/>
+          <a:ext cx="1161550" cy="5476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="607859" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39865216-F893-4FED-9CD1-54CDC1DF2AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="1790700"/>
+          <a:ext cx="607859" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内空幅</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b0 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>551139</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793F25DC-1E0B-4447-9515-6D78C9E7AA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1922739" y="2819401"/>
+          <a:ext cx="1020486" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862CCFA9-53C3-4BA6-BB6C-A49FC98568CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="2571750"/>
+          <a:ext cx="748923" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内空高さ</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>h0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431838</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>234077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF99312F-8D53-4B8A-B9F0-296D58336212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2489238" y="3562351"/>
+          <a:ext cx="453987" cy="5476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D713EF-3D30-448D-8704-C869ED412B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="3314700"/>
+          <a:ext cx="1313180" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コンクリート強度</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fck </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>234076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6201EF60-1478-4D22-BC06-6BC845CEBAA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1933126" y="4276726"/>
+          <a:ext cx="1010099" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="759310" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD003E84-7503-496A-9ECA-D2BD1FAD608B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4029075"/>
+          <a:ext cx="759310" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>環境条件</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>condition </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290774</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD17052E-BB80-435A-992F-1B9230C4D9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2348174" y="5776480"/>
+          <a:ext cx="595051" cy="5477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5704546-CA0E-4F36-A26C-8E567437E8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="5528830"/>
+          <a:ext cx="1172116" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>鉄筋の純かぶり</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ds</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362268</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9DE76A-8278-4861-9869-458739954943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419668" y="6519430"/>
+          <a:ext cx="523557" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80530</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1243610" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A283BE6-F5E9-4523-B6F1-C96AA1B088F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="6271780"/>
+          <a:ext cx="1243610" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の湿潤重量</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>r1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362268</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B6FB54-A7B8-4F28-B96B-AAF4D28E2FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419668" y="7233807"/>
+          <a:ext cx="523557" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80529</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1243610" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C47207-7E49-4E19-B998-8EA5C98632C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="6986154"/>
+          <a:ext cx="1243610" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の地盤区分</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>type2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362268</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E6E505-DC3B-497C-AC8C-30176706F521}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419668" y="8014855"/>
+          <a:ext cx="523557" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1243610" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B37C0C-9A35-4064-8A61-F1610544CBE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="7767205"/>
+          <a:ext cx="1243610" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の湿潤重量</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>r2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644397</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>185305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63917335-5706-4876-8FB9-9D2CA36B6CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2701797" y="8757805"/>
+          <a:ext cx="241429" cy="5476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1525739" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8EC673-EA26-4CC3-9B13-0CF3EE399C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="8510154"/>
+          <a:ext cx="1525739" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の地盤反力係数</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E02 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644397</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>185306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D466AC58-E243-4126-9E03-3CB1CC13A9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2701797" y="9472181"/>
+          <a:ext cx="241428" cy="5476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1525739" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17B7CFE-07E2-4E8F-AEBC-C491DC83738E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="9224529"/>
+          <a:ext cx="1525739" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の静止土圧係数</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ko2 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362268</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>212520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>217994</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F87D9F-C9A8-47D2-BBE1-A622E996E0DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419668" y="10213770"/>
+          <a:ext cx="523557" cy="5474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>202994</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1243610" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4999954B-9BCD-4FED-8EF7-9A4E6C9A958A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="9966119"/>
+          <a:ext cx="1243610" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の地盤区分</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>type3 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362268</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>212520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>217996</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800B1B1B-EE10-48F6-A947-C319733B2134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419668" y="10928145"/>
+          <a:ext cx="523557" cy="5476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>202994</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1243610" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE2DFF5-96E3-40F8-8D1A-6984711D97B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="10680494"/>
+          <a:ext cx="1243610" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の湿潤重量</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>r3 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240312</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40053</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C5A637-0319-412E-94B9-3025FD1A7ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2297712" y="5026094"/>
+          <a:ext cx="635988" cy="14584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142330</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1121654" cy="736740"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C404F95-B008-4CFF-BA73-E777A3F6458D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="4666705"/>
+          <a:ext cx="1121654" cy="736740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>埋め戻し土の</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>湿潤重量</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>coverSoilWeight</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644397</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDC7970-C802-4F8C-839F-6A134F7583E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2701797" y="11679012"/>
+          <a:ext cx="241429" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1525739" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5D1A3-F1ED-46A2-BAAB-28DA5D5976EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="11431361"/>
+          <a:ext cx="1525739" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の地盤反力係数</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E03 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>644397</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>16362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFC6BD2-14F4-42EC-8EAA-869D4937B238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2701797" y="12393387"/>
+          <a:ext cx="241429" cy="5475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1525739" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512FE3ED-447D-4130-9924-A2E32931C979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="12145736"/>
+          <a:ext cx="1525739" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>層目の静止土圧係数</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ko3 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4595811" cy="12334876"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="グラフィックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D4963BD-D222-460D-BAF2-C7EDE726ED88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="75095" t="13360" r="12440" b="17470"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="190500"/>
+          <a:ext cx="4595811" cy="12334876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825611" cy="1125501"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAE0EB9-E832-44CD-A580-DE86FB6F71C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783046" y="4714876"/>
+          <a:ext cx="825611" cy="1125501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>605020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE63EBB0-616E-4C39-9A0B-80BEFD61E51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12949420" y="5836227"/>
+          <a:ext cx="427144" cy="8942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80530</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2D4822-8038-40F5-A904-838523241BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325475" y="5557405"/>
+          <a:ext cx="1031051" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上床版の厚み</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tu1 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>605020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4310040-A0C5-4E25-9257-CC5778070FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12949420" y="6528191"/>
+          <a:ext cx="427144" cy="8942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58118</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7C5B7D-CE14-4236-A046-858F2DB202FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325475" y="6249368"/>
+          <a:ext cx="1031051" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下床版の厚み</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tb1 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>605020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141376</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2DBD11-BEF6-46DC-99E9-18BCEABF308C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12949420" y="7276184"/>
+          <a:ext cx="427144" cy="8942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1FE7BE-E1D9-48B2-893D-05FEED8BB3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325475" y="6997362"/>
+          <a:ext cx="889987" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>側壁の厚み</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tw1 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3480,27 +6856,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED869C6-2109-9F43-A1A2-31D065FA07A8}">
   <dimension ref="A3:AB31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView showGridLines="0" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="20.25" customHeight="1"/>
   <sheetData>
     <row r="3" spans="1:28" ht="20.25" customHeight="1">
-      <c r="G3" s="27" t="s">
-        <v>11</v>
+      <c r="G3" s="20" t="s">
+        <v>6</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27" t="s">
-        <v>13</v>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20" t="s">
+        <v>8</v>
       </c>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:28" ht="20.25" customHeight="1">
-      <c r="C4" s="26" t="s">
-        <v>12</v>
+      <c r="C4" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -3514,7 +6890,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -3544,7 +6920,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -3559,7 +6935,7 @@
       <c r="V6" s="11"/>
       <c r="W6" s="3"/>
       <c r="X6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -3576,14 +6952,14 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="29" t="s">
-        <v>14</v>
+      <c r="J7" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="13" t="s">
-        <v>8</v>
+      <c r="N7" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3594,9 +6970,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="X7" s="13"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -3610,11 +6984,11 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="29"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -3637,8 +7011,8 @@
     <row r="9" spans="1:28" ht="20.25" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="H9" s="19"/>
-      <c r="J9" s="29"/>
+      <c r="H9" s="23"/>
+      <c r="J9" s="28"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -3649,9 +7023,9 @@
     <row r="10" spans="1:28" ht="20.25" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="23"/>
       <c r="J10" s="1"/>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="26" t="s">
         <v>2</v>
       </c>
       <c r="W10" s="6"/>
@@ -3664,18 +7038,18 @@
     <row r="11" spans="1:28" ht="20.25" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -3686,23 +7060,23 @@
     <row r="12" spans="1:28" ht="20.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
       <c r="W12" s="6"/>
       <c r="X12" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -3712,26 +7086,24 @@
     <row r="13" spans="1:28" ht="20.25" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="X13" s="14"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -3740,22 +7112,22 @@
     <row r="14" spans="1:28" ht="20.25" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -3766,25 +7138,25 @@
     <row r="15" spans="1:28" ht="20.25" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="18" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -3795,24 +7167,24 @@
     <row r="16" spans="1:28" ht="20.25" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
@@ -3824,22 +7196,22 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -3849,29 +7221,29 @@
     </row>
     <row r="18" spans="1:28" ht="20.25" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -3883,22 +7255,22 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
@@ -3910,22 +7282,22 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -3936,23 +7308,23 @@
     <row r="21" spans="1:28" ht="20.25" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="21"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
@@ -3963,25 +7335,25 @@
     <row r="22" spans="1:28" ht="20.25" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
       <c r="W22" s="8"/>
       <c r="X22" s="9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -3991,26 +7363,24 @@
     <row r="23" spans="1:28" ht="20.25" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="X23" s="10"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -4019,22 +7389,22 @@
     <row r="24" spans="1:28" ht="20.25" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
@@ -4045,24 +7415,24 @@
     <row r="25" spans="1:28" ht="20.25" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
@@ -4073,7 +7443,7 @@
     <row r="26" spans="1:28" ht="20.25" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="23"/>
       <c r="O26" s="1"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
@@ -4085,7 +7455,7 @@
     <row r="27" spans="1:28" ht="20.25" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="23"/>
       <c r="O27" s="1"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
@@ -4097,7 +7467,7 @@
     <row r="28" spans="1:28" ht="20.25" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="23"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
@@ -4113,7 +7483,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -4206,7 +7576,7 @@
     <mergeCell ref="K18:O18"/>
     <mergeCell ref="J7:J9"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -4214,4 +7584,24 @@
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB0D6F3-098E-4B8C-859D-C5BCA5A1047B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>